--- a/documentacao/Docs/ProductBacklog-v2.xlsx
+++ b/documentacao/Docs/ProductBacklog-v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\coold\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\coold\documentacao\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>Escopo</t>
   </si>
@@ -113,10 +113,13 @@
     <t>Sprint Grupo 1 (Sprint 2)- 16/09 - 30/09</t>
   </si>
   <si>
-    <t>Sprint Grupo 1 (Sprint 3)- 30/09 - 14/10</t>
-  </si>
-  <si>
-    <t>Sprint Grupo 1 (Sprint 3)- 14/10 - 21/10</t>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Sprint Grupo 2 (Sprint 2)- 30/09 - 21/10</t>
+  </si>
+  <si>
+    <t>Sprint Grupo 3(Sprint 3)- 21/10 - 25/11</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +216,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,33 +395,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -408,6 +414,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +743,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B1" sqref="B1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +855,7 @@
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="9">
@@ -886,16 +937,16 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
+      <c r="B14" s="25">
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="26">
         <v>2</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="27">
         <v>3</v>
       </c>
     </row>
@@ -1003,313 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="137" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="25">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="25">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="25">
-        <v>7</v>
-      </c>
-      <c r="D8" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="28">
-        <v>8</v>
-      </c>
-      <c r="D9" s="26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="25">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="35">
-        <v>2</v>
-      </c>
-      <c r="D14" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="25">
-        <v>3</v>
-      </c>
-      <c r="D15" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="25">
-        <v>4</v>
-      </c>
-      <c r="D16" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="25">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="31">
-        <v>6</v>
-      </c>
-      <c r="D18" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="25">
-        <v>7</v>
-      </c>
-      <c r="D19" s="33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="20">
-        <f>SUM(D2,D3,D4,D10,D11,D13,D14)</f>
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1334,45 +1079,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="28">
-        <v>3</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1386,7 +1131,7 @@
       <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1400,222 +1145,222 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="22">
         <v>6</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="28">
-        <v>8</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="22">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="25">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25">
-        <v>3</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9">
         <v>4</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="14">
         <v>6</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="15">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="25">
+      <c r="B19" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
         <v>7</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="D21" s="20">
-        <f>SUM(D14,D16,D5:D6,D13)</f>
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,167 +1385,167 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="38">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="38">
         <v>2</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="28">
-        <v>3</v>
-      </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="C4" s="38">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="38">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="35">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="38">
+        <v>8</v>
+      </c>
+      <c r="D9" s="36">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="35">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="35">
         <v>2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="35">
+        <v>3</v>
+      </c>
+      <c r="D12" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="D13" s="11">
@@ -1808,86 +1553,86 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="39">
-        <v>3</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="35">
+        <v>3</v>
+      </c>
+      <c r="D15" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="26">
         <v>4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="35">
+        <v>5</v>
+      </c>
+      <c r="D17" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="40">
         <v>6</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="41">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="34">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="25">
+      <c r="B19" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35">
         <v>7</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="42">
         <v>8</v>
       </c>
     </row>
@@ -1895,7 +1640,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1906,8 +1651,311 @@
         <v>15</v>
       </c>
       <c r="D21" s="20">
-        <f>SUM(D12:D16,D7:D9)</f>
-        <v>51</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="137" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="38">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2</v>
+      </c>
+      <c r="D3" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="38">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="38">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="38">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="35">
+        <v>2</v>
+      </c>
+      <c r="D11" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="30">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="35">
+        <v>5</v>
+      </c>
+      <c r="D17" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="35">
+        <v>6</v>
+      </c>
+      <c r="D18" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35">
+        <v>7</v>
+      </c>
+      <c r="D19" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="20">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
